--- a/src/data/profiles/xlsx/bluff/profile 34-3 graph.xlsx
+++ b/src/data/profiles/xlsx/bluff/profile 34-3 graph.xlsx
@@ -15946,11 +15946,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="50978446"/>
-        <c:axId val="80423896"/>
+        <c:axId val="8580541"/>
+        <c:axId val="51989336"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="50978446"/>
+        <c:axId val="8580541"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15985,12 +15985,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="80423896"/>
+        <c:crossAx val="51989336"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="80423896"/>
+        <c:axId val="51989336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16034,7 +16034,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="50978446"/>
+        <c:crossAx val="8580541"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
